--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3280.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3280.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7476445264440201</v>
+        <v>1.303422808647156</v>
       </c>
       <c r="B1">
-        <v>1.060437012063183</v>
+        <v>2.699458837509155</v>
       </c>
       <c r="C1">
-        <v>1.967730101784337</v>
+        <v>3.112922430038452</v>
       </c>
       <c r="D1">
-        <v>4.880217062797325</v>
+        <v>1.555411100387573</v>
       </c>
       <c r="E1">
-        <v>2.653544720732045</v>
+        <v>1.124618172645569</v>
       </c>
     </row>
   </sheetData>
